--- a/Relevant Documents/Copy of Predicted Status Groups.xlsx
+++ b/Relevant Documents/Copy of Predicted Status Groups.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26915"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kstraub/Documents/Research/EmailPaper/Thesis/Relevant Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Github\Thesis\Relevant Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="gs" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,10 @@
     <sheet name="outreach" sheetId="6" r:id="rId6"/>
     <sheet name="Operations" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -293,11 +293,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]&quot;-&quot;[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -372,7 +372,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -455,8 +455,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0161207700960985"/>
-                  <c:y val="0.00738136919167605"/>
+                  <c:x val="-1.61207700960985E-2"/>
+                  <c:y val="7.3813691916760496E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -468,6 +468,9 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-E77C-4D6B-9513-1F89F4220C31}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -530,22 +533,27 @@
               <c:formatCode>General</c:formatCode>
               <c:ptCount val="5"/>
               <c:pt idx="0">
-                <c:v>0.814814814814815</c:v>
+                <c:v>0.81481481481481499</c:v>
               </c:pt>
               <c:pt idx="1">
                 <c:v>0.3125</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>0.0</c:v>
+                <c:v>0</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>1.0</c:v>
+                <c:v>1</c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>0.142857142857143</c:v>
+                <c:v>0.14285714285714299</c:v>
               </c:pt>
             </c:numLit>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E77C-4D6B-9513-1F89F4220C31}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -567,8 +575,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0217693863896132"/>
-                  <c:y val="-9.02156923855538E-17"/>
+                  <c:x val="2.1769386389613201E-2"/>
+                  <c:y val="-9.0215692385553799E-17"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -577,7 +585,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="bg-BG"/>
+                      <a:rPr lang="en-US"/>
                       <a:t>N/A</a:t>
                     </a:r>
                   </a:p>
@@ -594,6 +602,9 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-E77C-4D6B-9513-1F89F4220C31}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -605,7 +616,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="bg-BG"/>
+                      <a:rPr lang="en-US"/>
                       <a:t>N/A</a:t>
                     </a:r>
                   </a:p>
@@ -622,6 +633,9 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-E77C-4D6B-9513-1F89F4220C31}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -633,7 +647,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="bg-BG"/>
+                      <a:rPr lang="en-US"/>
                       <a:t>N/A</a:t>
                     </a:r>
                   </a:p>
@@ -649,6 +663,9 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-E77C-4D6B-9513-1F89F4220C31}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -713,23 +730,28 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.956521739130435</c:v>
+                  <c:v>0.95652173913043481</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.846153846153846</c:v>
+                  <c:v>0.84615384615384615</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E77C-4D6B-9513-1F89F4220C31}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -748,7 +770,7 @@
         <c:axId val="2104441760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.0"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -922,10 +944,685 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.149706384784024"/>
-          <c:y val="0.094223274600108"/>
-          <c:w val="0.700587089392843"/>
-          <c:h val="0.0732113644412517"/>
+          <c:x val="0.14970638478402401"/>
+          <c:y val="9.4223274600108001E-2"/>
+          <c:w val="0.70058708939284298"/>
+          <c:h val="7.3211364441251703E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:tabLst/>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="595959"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface=""/>
+              <a:cs typeface=""/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="9528" cap="flat">
+      <a:solidFill>
+        <a:srgbClr val="D9D9D9"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
+        <a:lnSpc>
+          <a:spcPct val="100000"/>
+        </a:lnSpc>
+        <a:spcBef>
+          <a:spcPts val="0"/>
+        </a:spcBef>
+        <a:spcAft>
+          <a:spcPts val="0"/>
+        </a:spcAft>
+        <a:tabLst/>
+        <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Calibri"/>
+          <a:ea typeface=""/>
+          <a:cs typeface=""/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:tabLst/>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface=""/>
+                <a:cs typeface=""/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface=""/>
+                <a:cs typeface=""/>
+              </a:rPr>
+              <a:t>Project Identification</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Director Identification</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.61207700960985E-2"/>
+                  <c:y val="7.3813691916760496E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-34C0-4EE2-96FE-9F16A65A8140}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" baseline="0"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>GradStudent</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Research</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>PM</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Outreach</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>Operations</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>0.81481481481481499</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>0.3125</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>0.14285714285714299</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-34C0-4EE2-96FE-9F16A65A8140}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>PM Identification</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.1769386389613201E-2"/>
+                  <c:y val="-9.0215692385553799E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>N/A</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-34C0-4EE2-96FE-9F16A65A8140}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>N/A</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-34C0-4EE2-96FE-9F16A65A8140}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>N/A</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-34C0-4EE2-96FE-9F16A65A8140}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" baseline="0"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>GradStudent</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Research</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>PM</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Outreach</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>Operations</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(All!$I$33,All!$I$50,All!$I$56,All!$I$59,All!$I$67)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84615384615384615</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-34C0-4EE2-96FE-9F16A65A8140}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-55"/>
+        <c:axId val="2117484672"/>
+        <c:axId val="2104441760"/>
+      </c:barChart>
+      <c:valAx>
+        <c:axId val="2104441760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9528" cap="flat">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:tabLst/>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                    <a:ea typeface=""/>
+                    <a:cs typeface=""/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:uFillTx/>
+                    <a:latin typeface="Calibri"/>
+                    <a:ea typeface=""/>
+                    <a:cs typeface=""/>
+                  </a:rPr>
+                  <a:t>Percentage Correct</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface=""/>
+                <a:cs typeface=""/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2117484672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="2117484672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9528" cap="flat">
+            <a:solidFill>
+              <a:srgbClr val="D9D9D9"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface=""/>
+                <a:cs typeface=""/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2104441760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14970638478402401"/>
+          <c:y val="9.4223274600108001E-2"/>
+          <c:w val="0.70058708939284298"/>
+          <c:h val="7.3211364441251703E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1018,12 +1715,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>212268</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>402768</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>70756</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7090232" cy="5161644"/>
+    <xdr:ext cx="8245932" cy="5161644"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1036,6 +1733,33 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8245932" cy="5161644"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1345,21 +2069,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="10" width="10.6640625" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" customWidth="1"/>
+    <col min="8" max="10" width="10.625" customWidth="1"/>
+    <col min="11" max="11" width="12.375" customWidth="1"/>
+    <col min="12" max="12" width="10.625" customWidth="1"/>
     <col min="13" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1388,7 +2112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1415,7 +2139,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1442,7 +2166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1476,7 +2200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1510,7 +2234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1544,7 +2268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1564,7 +2288,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1598,7 +2322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -1632,7 +2356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1659,7 +2383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1686,7 +2410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1720,7 +2444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1754,7 +2478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1788,7 +2512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -1808,7 +2532,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1842,7 +2566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -1876,7 +2600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -1910,7 +2634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1937,7 +2661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -1971,7 +2695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -1991,7 +2715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -2025,7 +2749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -2059,7 +2783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -2093,7 +2817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -2127,7 +2851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -2147,7 +2871,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -2181,7 +2905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -2215,7 +2939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -2249,7 +2973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -2283,7 +3007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -2317,7 +3041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -2344,7 +3068,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="8:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="8:12">
       <c r="H34" s="1">
         <f>SUM(H2:H32)/COUNT(H2:H32)</f>
         <v>0.95652173913043481</v>
@@ -2367,25 +3091,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I10" workbookViewId="0">
-      <selection activeCell="V48" sqref="V48"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="AJ60" sqref="AJ60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="11.375" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="10" width="10.6640625" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" customWidth="1"/>
+    <col min="8" max="10" width="10.625" customWidth="1"/>
+    <col min="11" max="11" width="12.375" customWidth="1"/>
+    <col min="12" max="12" width="10.625" customWidth="1"/>
     <col min="13" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2414,7 +3138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2448,7 +3172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2475,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2509,7 +3233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -2543,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -2577,7 +3301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -2597,7 +3321,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -2631,7 +3355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -2665,7 +3389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -2692,7 +3416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -2719,7 +3443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -2753,7 +3477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -2787,7 +3511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -2821,7 +3545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -2845,7 +3569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -2879,7 +3603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -2913,7 +3637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -2947,7 +3671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -2974,7 +3698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -3008,7 +3732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -3028,7 +3752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -3062,7 +3786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -3096,7 +3820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -3130,7 +3854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -3164,7 +3888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -3184,7 +3908,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -3218,7 +3942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -3252,7 +3976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -3286,7 +4010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -3320,7 +4044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -3354,7 +4078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -3381,7 +4105,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14">
       <c r="I33" s="1">
         <f>SUM(H2:H32)/COUNT(H2:H32)</f>
         <v>0.95652173913043481</v>
@@ -3394,7 +4118,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -3425,7 +4149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -3456,7 +4180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
         <v>59</v>
       </c>
@@ -3487,7 +4211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -3518,7 +4242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -3542,7 +4266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -3566,7 +4290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -3597,7 +4321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -3628,7 +4352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -3659,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -3690,7 +4414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -3721,7 +4445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
         <v>65</v>
       </c>
@@ -3752,7 +4476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
         <v>25</v>
       </c>
@@ -3783,7 +4507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
         <v>66</v>
       </c>
@@ -3807,7 +4531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
         <v>23</v>
       </c>
@@ -3838,7 +4562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -3869,7 +4593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14">
       <c r="I50" s="1">
         <f>SUM(H34:H49)/COUNT(H34:H49)</f>
         <v>0.84615384615384615</v>
@@ -3882,7 +4606,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -3903,7 +4627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
         <v>69</v>
       </c>
@@ -3924,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -3945,7 +4669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
         <v>15</v>
       </c>
@@ -3966,7 +4690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -3987,7 +4711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:14">
       <c r="I56" t="s">
         <v>84</v>
       </c>
@@ -3999,7 +4723,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -4017,7 +4741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -4035,7 +4759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14">
       <c r="I59" t="s">
         <v>84</v>
       </c>
@@ -4047,7 +4771,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
         <v>74</v>
       </c>
@@ -4065,7 +4789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14">
       <c r="A61" t="s">
         <v>76</v>
       </c>
@@ -4083,7 +4807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -4101,7 +4825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14">
       <c r="A63" t="s">
         <v>78</v>
       </c>
@@ -4119,7 +4843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14">
       <c r="A64" t="s">
         <v>79</v>
       </c>
@@ -4137,7 +4861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:14">
       <c r="A65" t="s">
         <v>80</v>
       </c>
@@ -4155,7 +4879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:14">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -4173,7 +4897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:14">
       <c r="I67" t="s">
         <v>84</v>
       </c>
@@ -4185,7 +4909,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:14">
       <c r="H68" s="1">
         <f>SUM(H2:H66)/COUNT(H2:H66)</f>
         <v>0.91666666666666663</v>
@@ -4208,15 +4932,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="5" width="10.6640625" customWidth="1"/>
+    <col min="1" max="5" width="10.625" customWidth="1"/>
     <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="10.6640625" customWidth="1"/>
+    <col min="7" max="11" width="10.625" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="E1" t="s">
         <v>3</v>
       </c>
@@ -4236,7 +4960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -4267,7 +4991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -4298,7 +5022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -4329,7 +5053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -4360,7 +5084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -4384,7 +5108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -4408,7 +5132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -4439,7 +5163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -4470,7 +5194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -4501,7 +5225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -4532,7 +5256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -4563,7 +5287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -4594,7 +5318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -4625,7 +5349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -4649,7 +5373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -4680,7 +5404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -4711,7 +5435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11">
       <c r="G19" s="1">
         <f>SUM(G2:G17)/COUNT(G2:G17)</f>
         <v>0.84615384615384615</v>
@@ -4736,13 +5460,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="10.6640625" customWidth="1"/>
+    <col min="1" max="3" width="10.625" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -4753,7 +5477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -4764,7 +5488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -4775,7 +5499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -4786,7 +5510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -4797,7 +5521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -4808,7 +5532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -4819,7 +5543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -4845,13 +5569,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="7" width="10.6640625" customWidth="1"/>
+    <col min="1" max="7" width="10.625" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="E1" t="s">
         <v>6</v>
       </c>
@@ -4862,7 +5586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4883,7 +5607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -4904,7 +5628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -4925,7 +5649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -4946,7 +5670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -4967,13 +5691,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="G8" s="1">
         <f>SUM(G2:G6)/COUNT(G2:G6)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="G12" s="1"/>
     </row>
   </sheetData>
@@ -4991,13 +5715,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="10.6640625" customWidth="1"/>
+    <col min="1" max="2" width="10.625" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="D1" t="s">
         <v>6</v>
       </c>
@@ -5008,7 +5732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -5026,7 +5750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -5044,7 +5768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="F5" s="1">
         <f>SUM(F2:F3)/COUNT(F2:F3)</f>
         <v>1</v>
@@ -5065,16 +5789,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="1" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="D1" t="s">
         <v>6</v>
       </c>
@@ -5085,7 +5809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -5103,7 +5827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -5121,7 +5845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -5139,7 +5863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -5157,7 +5881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -5175,7 +5899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -5193,7 +5917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -5211,7 +5935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="F10" s="1">
         <f>SUM(F2:F8)/COUNT(F2:F8)</f>
         <v>0.14285714285714285</v>

--- a/Relevant Documents/Copy of Predicted Status Groups.xlsx
+++ b/Relevant Documents/Copy of Predicted Status Groups.xlsx
@@ -378,57 +378,7 @@
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:tabLst/>
-              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface=""/>
-                <a:cs typeface=""/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFillTx/>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface=""/>
-                <a:cs typeface=""/>
-              </a:rPr>
-              <a:t>Project Identification</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -439,7 +389,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Director Identification</c:v>
+            <c:v>Official Director</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -559,7 +509,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>PM Identification</c:v>
+            <c:v>Official PM</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -770,7 +720,8 @@
         <c:axId val="2104441760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
+          <c:max val="1.05"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -939,17 +890,8 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.14970638478402401"/>
-          <c:y val="9.4223274600108001E-2"/>
-          <c:w val="0.70058708939284298"/>
-          <c:h val="7.3211364441251703E-2"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1717,10 +1659,10 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>402768</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>70756</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="8245932" cy="5161644"/>
+    <xdr:ext cx="8245932" cy="3632635"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -3091,8 +3033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="AJ60" sqref="AJ60"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="X34" sqref="X34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>

--- a/Relevant Documents/Copy of Predicted Status Groups.xlsx
+++ b/Relevant Documents/Copy of Predicted Status Groups.xlsx
@@ -20,7 +20,7 @@
     <sheet name="outreach" sheetId="6" r:id="rId6"/>
     <sheet name="Operations" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -753,7 +753,7 @@
                     <a:spcPts val="0"/>
                   </a:spcAft>
                   <a:tabLst/>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -763,7 +763,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                  <a:rPr lang="en-US" sz="2200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -811,7 +811,7 @@
                 <a:spcPts val="0"/>
               </a:spcAft>
               <a:tabLst/>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -863,7 +863,7 @@
                 <a:spcPts val="0"/>
               </a:spcAft>
               <a:tabLst/>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -914,7 +914,7 @@
               <a:spcPts val="0"/>
             </a:spcAft>
             <a:tabLst/>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
@@ -1660,9 +1660,9 @@
       <xdr:col>26</xdr:col>
       <xdr:colOff>402768</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>23811</xdr:rowOff>
+      <xdr:rowOff>119061</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="8245932" cy="3632635"/>
+    <xdr:ext cx="8122106" cy="3537385"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -3033,8 +3033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="X34" sqref="X34"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AK44" sqref="AK44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>

--- a/Relevant Documents/Copy of Predicted Status Groups.xlsx
+++ b/Relevant Documents/Copy of Predicted Status Groups.xlsx
@@ -1653,6 +1653,623 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Official Director</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.61207700960985E-2"/>
+                  <c:y val="7.3813691916760496E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-291B-4D3B-80ED-EF1A57196112}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" baseline="0"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>GradStudent</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Research</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>PM</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Outreach</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>Operations</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>0.81481481481481499</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>0.3125</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>0.14285714285714299</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-291B-4D3B-80ED-EF1A57196112}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Official PM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.1769386389613201E-2"/>
+                  <c:y val="-9.0215692385553799E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>N/A</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-291B-4D3B-80ED-EF1A57196112}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>N/A</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-291B-4D3B-80ED-EF1A57196112}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>N/A</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-291B-4D3B-80ED-EF1A57196112}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" baseline="0"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>GradStudent</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Research</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>PM</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Outreach</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>Operations</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(All!$I$33,All!$I$50,All!$I$56,All!$I$59,All!$I$67)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84615384615384615</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-291B-4D3B-80ED-EF1A57196112}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-55"/>
+        <c:axId val="2117484672"/>
+        <c:axId val="2104441760"/>
+      </c:barChart>
+      <c:valAx>
+        <c:axId val="2104441760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.05"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9528" cap="flat">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:tabLst/>
+                  <a:defRPr sz="2200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                    <a:ea typeface=""/>
+                    <a:cs typeface=""/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:uFillTx/>
+                    <a:latin typeface="Calibri"/>
+                    <a:ea typeface=""/>
+                    <a:cs typeface=""/>
+                  </a:rPr>
+                  <a:t>Percentage Correct</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:tabLst/>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface=""/>
+                <a:cs typeface=""/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2117484672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="2117484672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9528" cap="flat">
+            <a:solidFill>
+              <a:srgbClr val="D9D9D9"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:tabLst/>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface=""/>
+                <a:cs typeface=""/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2104441760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:tabLst/>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="595959"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface=""/>
+              <a:cs typeface=""/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="9528" cap="flat">
+      <a:solidFill>
+        <a:srgbClr val="D9D9D9"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
+        <a:lnSpc>
+          <a:spcPct val="100000"/>
+        </a:lnSpc>
+        <a:spcBef>
+          <a:spcPts val="0"/>
+        </a:spcBef>
+        <a:spcAft>
+          <a:spcPts val="0"/>
+        </a:spcAft>
+        <a:tabLst/>
+        <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Calibri"/>
+          <a:ea typeface=""/>
+          <a:cs typeface=""/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -1702,6 +2319,33 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8122106" cy="3537385"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3034,7 +3678,7 @@
   <dimension ref="A1:N68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AK44" sqref="AK44"/>
+      <selection activeCell="AS77" sqref="AS77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
